--- a/biology/Botanique/Pierre-Denis_Vregeon/Pierre-Denis_Vregeon.xlsx
+++ b/biology/Botanique/Pierre-Denis_Vregeon/Pierre-Denis_Vregeon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre-Denis Vregeon, né le 20 septembre 1723 sur la paroisse de Saint-Pierre-l’Honoré de Rouen où il est mort le 13 floréal an II, est un physicien français.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ayant embrassé l’état ecclésiastique, Pierre-Denis Vregeon fut d’abord prêtre habitué de la paroisse Saint-Godard de Rouen, puis curé de Salmonville-la-Sauvage[1], mais il se démit bientôt de cette cure pour pouvoir se livrer plus librement à l’étude des sciences, surtout à celle de la physique expérimentale[2].
-Reçu membre de l’Académie des sciences, belles-lettres et arts de Rouen en 1754[2], il en devint le trésorier et le premier bibliothécaire lorsqu’une dotation royale de 600 livres rendit publique la bibliothèque de l’Académie en 1782[1]. Deux ans plus tard, il en publia le catalogue où apparaît son portrait gravé par M.-D. Hautot[1]. Il fut également nommé, en 1764, juge des concours de l’Académie des Palinods de Rouen[1]. Il fut également intendant du Jardin des plantes de Rouen[1]. Il appartenait également à l’Académie des sciences, belles-lettres et arts de Clermont-Ferrand[2]. À la Révolution, il prêta serment à la Constitution[3].
-Cet ecclésiastique avait beaucoup d’originalité dans l’esprit[2],[4]. Il s’exprimait ainsi dans une note de la table des registres de l’Académie de Rouen, à l’article « Amitié » : 
-« L’amitié des gens de lettres, je n’y ai pas plus foi qu’à celle du sexe ; deux savants s’encensent, deux femmes s’embrassent, je n’en crois pas un mot. Tous ne se louent qu’à charge de blâme. Aucun ne se pardonne la supériorité, même après la mort[2]. »
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ayant embrassé l’état ecclésiastique, Pierre-Denis Vregeon fut d’abord prêtre habitué de la paroisse Saint-Godard de Rouen, puis curé de Salmonville-la-Sauvage, mais il se démit bientôt de cette cure pour pouvoir se livrer plus librement à l’étude des sciences, surtout à celle de la physique expérimentale.
+Reçu membre de l’Académie des sciences, belles-lettres et arts de Rouen en 1754, il en devint le trésorier et le premier bibliothécaire lorsqu’une dotation royale de 600 livres rendit publique la bibliothèque de l’Académie en 1782. Deux ans plus tard, il en publia le catalogue où apparaît son portrait gravé par M.-D. Hautot. Il fut également nommé, en 1764, juge des concours de l’Académie des Palinods de Rouen. Il fut également intendant du Jardin des plantes de Rouen. Il appartenait également à l’Académie des sciences, belles-lettres et arts de Clermont-Ferrand. À la Révolution, il prêta serment à la Constitution.
+Cet ecclésiastique avait beaucoup d’originalité dans l’esprit,. Il s’exprimait ainsi dans une note de la table des registres de l’Académie de Rouen, à l’article « Amitié » : 
+« L’amitié des gens de lettres, je n’y ai pas plus foi qu’à celle du sexe ; deux savants s’encensent, deux femmes s’embrassent, je n’en crois pas un mot. Tous ne se louent qu’à charge de blâme. Aucun ne se pardonne la supériorité, même après la mort. »
 </t>
         </is>
       </c>
